--- a/Scrum stuff/Product en Sprint Backlog.xlsx
+++ b/Scrum stuff/Product en Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mijn-Pc\Documents\HRO\Project 4\Scrum stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Documents\GitHub\Project4\Scrum stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -116,59 +116,19 @@
     <t xml:space="preserve">Create UML diagrams </t>
   </si>
   <si>
-    <t>As a developer I want a database that contains all the information from my datasets so that I can easily add, remove, change or filter the information that I need</t>
-  </si>
-  <si>
-    <t>As a developer I want to have a parser in my code so that I can easily collect data from the database and use it.</t>
-  </si>
-  <si>
     <t>As a developer I want to have UML diagrams of my code so that I can better understand the way it is (or should be) built.</t>
   </si>
   <si>
-    <t>As a user I want to be able to see the neighbourhoods with the most amout of bicycle containers in a bar chart so I know where I have the best chance of finding an empty one.</t>
-  </si>
-  <si>
-    <t># Make a button
-# Make a bar chart code
-#Request information from database
-#Draw a visual representation of a bar chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Set up database on server with PosgreSQL 
-</t>
-  </si>
-  <si>
-    <t>#Build parser
-#Fill database</t>
-  </si>
-  <si>
-    <t>#Make UML diagrams</t>
-  </si>
-  <si>
     <t>Create a main menu</t>
-  </si>
-  <si>
-    <t># Button is displayed and functional
-# Bar chart is displayed and functional</t>
-  </si>
-  <si>
-    <t>#Database is functional (Ready to fill)</t>
-  </si>
-  <si>
-    <t>#Database is filled with 2 datasets</t>
   </si>
   <si>
     <t>#UML diagrams are finished and once checked by P.O 
 or Tutor</t>
   </si>
   <si>
-    <t xml:space="preserve">#Create main menu 
-#Create buttons 
-</t>
-  </si>
-  <si>
-    <t># Main menu starts at startup
-#Buttons are displayed</t>
+    <t>#Make UML diagram draft
+#Digitalize the UML diagram
+#Convert digital UML diagram into code</t>
   </si>
 </sst>
 </file>
@@ -256,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,20 +235,8 @@
         <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF434343"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,50 +296,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -419,9 +328,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -444,54 +350,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,14 +371,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +679,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,10 +695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="2"/>
@@ -859,13 +738,13 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
@@ -894,18 +773,16 @@
       <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -932,16 +809,16 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -968,16 +845,16 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1004,16 +881,16 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1040,16 +917,16 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1076,16 +953,16 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1112,16 +989,16 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1148,15 +1025,15 @@
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1183,17 +1060,15 @@
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1220,17 +1095,15 @@
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1257,17 +1130,17 @@
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1294,17 +1167,15 @@
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1331,9 +1202,9 @@
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1362,10 +1233,10 @@
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1394,10 +1265,10 @@
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1426,10 +1297,10 @@
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1458,10 +1329,10 @@
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1490,10 +1361,10 @@
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1522,10 +1393,10 @@
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1554,9 +1425,9 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1586,9 +1457,9 @@
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1618,9 +1489,9 @@
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1650,7 +1521,7 @@
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1738,9 +1609,9 @@
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1770,9 +1641,9 @@
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -31182,8 +31053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31197,26 +31068,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -31226,177 +31097,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>0</v>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="20">
-        <v>8</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>13</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
-        <v>10</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="F3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
-        <v>11</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Scrum stuff/Product en Sprint Backlog.xlsx
+++ b/Scrum stuff/Product en Sprint Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -129,6 +129,104 @@
     <t>#Make UML diagram draft
 #Digitalize the UML diagram
 #Convert digital UML diagram into code</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to see the neighbourhoods with the most amout of bicycle containers in a bar chart so I know where I have the best chance of finding an empty one.</t>
+  </si>
+  <si>
+    <t># Make a button
+# Make a bar chart code
+#Request information from database
+#Draw a visual representation of a bar chart</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Bar chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>As a developer I want a database that contains all the information from my datasets so that I can easily add, remove, change or filter the information that I need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Set up database on server with PosgreSQL 
+</t>
+  </si>
+  <si>
+    <t>As a developer I want to have a parser in my code so that I can easily collect data from the database and use it.</t>
+  </si>
+  <si>
+    <t>#Build parser
+#Fill database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Create main menu 
+#Create buttons 
+</t>
+  </si>
+  <si>
+    <t>As a developer I want a main menu so that the users
+can navigate to the application more easily.</t>
+  </si>
+  <si>
+    <t># There is a parser that can fill an empty database with data.
+#Database is filled with 2 datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#Database is functional (Ready to fill)
+</t>
+  </si>
+  <si>
+    <t># Main menu starts at startup
+# Buttons are displayed</t>
+  </si>
+  <si>
+    <t>SPRINT 2 BACKLOG</t>
+  </si>
+  <si>
+    <t>As a user I want to see in which neighbourhood the
+most amount of bikes are stolen in a linechart, so
+I know where it is safe to park my bike.</t>
+  </si>
+  <si>
+    <t>#Make a button
+#Make a line chart code
+#Request information from database
+#Draw a visual representation of a line char</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Line chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Pie chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>#Make a button
+#Make a pie chart code
+#Request information from database
+#Draw a visual representation of a pie chart</t>
+  </si>
+  <si>
+    <t>As a user I want to see what color and what brand of bikes are stolen, so I know what kind of bike won´t be stolen.</t>
+  </si>
+  <si>
+    <t>Install Programs</t>
+  </si>
+  <si>
+    <t>As a developer I need to install the required programs so I can program a mobile platform app.</t>
+  </si>
+  <si>
+    <t>#Install Xamarin</t>
+  </si>
+  <si>
+    <t>#Xamarin is installed and works properly (No errors etc.)</t>
+  </si>
+  <si>
+    <t>As a developer, I need to show the product owner our progress, so she can evaluate it.</t>
   </si>
 </sst>
 </file>
@@ -300,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,10 +475,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,6 +485,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +810,10 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,10 +829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="2"/>
@@ -777,12 +911,14 @@
         <v>15</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -813,12 +949,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="29"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -849,12 +987,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="29"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -885,12 +1025,12 @@
         <v>18</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -921,12 +1061,12 @@
         <v>19</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -957,12 +1097,12 @@
         <v>24</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -993,12 +1133,12 @@
         <v>20</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1028,12 +1168,12 @@
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1063,12 +1203,14 @@
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1098,12 +1240,14 @@
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1133,14 +1277,14 @@
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1170,12 +1314,14 @@
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="29"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1202,9 +1348,15 @@
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31053,8 +31205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31068,10 +31220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31104,7 +31256,7 @@
       <c r="B3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D3">
@@ -31117,18 +31269,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>13</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -31191,26 +31361,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="27">
+        <v>8</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="43">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="43">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="35">
+        <v>11</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="27">
+        <v>8</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="43">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="42">
+        <v>5</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <v>11</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="43">
+        <v>3</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scrum stuff/Product en Sprint Backlog.xlsx
+++ b/Scrum stuff/Product en Sprint Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Documents\GitHub\Project4\Scrum stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Source\Repos\Project4\Scrum stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -129,6 +129,121 @@
     <t>#Make UML diagram draft
 #Digitalize the UML diagram
 #Convert digital UML diagram into code</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to see the neighbourhoods with the most amout of bicycle containers in a bar chart so I know where I have the best chance of finding an empty one.</t>
+  </si>
+  <si>
+    <t># Make a button
+# Make a bar chart code
+#Request information from database
+#Draw a visual representation of a bar chart</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Bar chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>As a developer I want a database that contains all the information from my datasets so that I can easily add, remove, change or filter the information that I need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Set up database on server with PosgreSQL 
+</t>
+  </si>
+  <si>
+    <t>As a developer I want to have a parser in my code so that I can easily collect data from the database and use it.</t>
+  </si>
+  <si>
+    <t>#Build parser
+#Fill database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Create main menu 
+#Create buttons 
+</t>
+  </si>
+  <si>
+    <t>As a developer I want a main menu so that the users
+can navigate to the application more easily.</t>
+  </si>
+  <si>
+    <t># There is a parser that can fill an empty database with data.
+#Database is filled with 2 datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#Database is functional (Ready to fill)
+</t>
+  </si>
+  <si>
+    <t># Main menu starts at startup
+# Buttons are displayed</t>
+  </si>
+  <si>
+    <t>SPRINT 2 BACKLOG</t>
+  </si>
+  <si>
+    <t>As a user I want to see in which neighbourhood the
+most amount of bikes are stolen in a linechart, so
+I know where it is safe to park my bike.</t>
+  </si>
+  <si>
+    <t>#Make a button
+#Make a line chart code
+#Request information from database
+#Draw a visual representation of a line char</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Line chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Pie chart is displayed and functional</t>
+  </si>
+  <si>
+    <t>#Make a button
+#Make a pie chart code
+#Request information from database
+#Draw a visual representation of a pie chart</t>
+  </si>
+  <si>
+    <t>As a user I want to see what color and what brand of bikes are stolen, so I know what kind of bike won´t be stolen.</t>
+  </si>
+  <si>
+    <t>Install Programs</t>
+  </si>
+  <si>
+    <t>As a developer I want to have access to all software necessary, so I can start developing the application.</t>
+  </si>
+  <si>
+    <t>#install Xamarin
+#updates.</t>
+  </si>
+  <si>
+    <t>#Xamarin is fully installed and working on all devices without any errors</t>
+  </si>
+  <si>
+    <t>As a developer I want to be able to create and convert UML files so that I have a clear view of what's going on in the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Install Astah case tool
+</t>
+  </si>
+  <si>
+    <t>#Astah is installed and operational</t>
+  </si>
+  <si>
+    <t>As a team we want a cooperative contract so that we have a clear set of rules on how to work together during the project.</t>
+  </si>
+  <si>
+    <t>#Create cooperative contract</t>
+  </si>
+  <si>
+    <t>#Contract is complete and everybody agress on its content.</t>
   </si>
 </sst>
 </file>
@@ -300,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -347,9 +462,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -363,24 +475,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,9 +489,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,9 +547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -451,7 +587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,10 +812,10 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,10 +831,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="2"/>
@@ -773,16 +909,18 @@
       <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="22"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -809,16 +947,18 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -849,12 +989,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -885,12 +1027,12 @@
         <v>18</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -921,12 +1063,12 @@
         <v>19</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -957,12 +1099,12 @@
         <v>24</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -993,12 +1135,12 @@
         <v>20</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1028,12 +1170,12 @@
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1063,12 +1205,14 @@
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1098,12 +1242,14 @@
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1133,14 +1279,14 @@
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1170,12 +1316,14 @@
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1202,9 +1350,15 @@
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31053,8 +31207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31068,10 +31222,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31087,7 +31241,7 @@
       <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -31098,48 +31252,98 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>20</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="19">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -31191,26 +31395,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
+        <v>8</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36">
+        <v>8</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
+        <v>8</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>11</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
+        <v>8</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36">
+        <v>8</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="35">
+        <v>5</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>9</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>11</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scrum stuff/Product en Sprint Backlog.xlsx
+++ b/Scrum stuff/Product en Sprint Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Source\Repos\Project4\Scrum stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Source\Repos\Project4\Scrum stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -134,21 +134,7 @@
     <t>As a user I want to be able to see the neighbourhoods with the most amout of bicycle containers in a bar chart so I know where I have the best chance of finding an empty one.</t>
   </si>
   <si>
-    <t># Make a button
-# Make a bar chart code
-#Request information from database
-#Draw a visual representation of a bar chart</t>
-  </si>
-  <si>
-    <t># Button is displayed and functional
-# Bar chart is displayed and functional</t>
-  </si>
-  <si>
     <t>As a developer I want a database that contains all the information from my datasets so that I can easily add, remove, change or filter the information that I need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Set up database on server with PosgreSQL 
-</t>
   </si>
   <si>
     <t>As a developer I want to have a parser in my code so that I can easily collect data from the database and use it.</t>
@@ -188,27 +174,7 @@
 I know where it is safe to park my bike.</t>
   </si>
   <si>
-    <t>#Make a button
-#Make a line chart code
-#Request information from database
-#Draw a visual representation of a line char</t>
-  </si>
-  <si>
-    <t># Button is displayed and functional
-# Line chart is displayed and functional</t>
-  </si>
-  <si>
     <t>SPRINT 3 BACKLOG</t>
-  </si>
-  <si>
-    <t># Button is displayed and functional
-# Pie chart is displayed and functional</t>
-  </si>
-  <si>
-    <t>#Make a button
-#Make a pie chart code
-#Request information from database
-#Draw a visual representation of a pie chart</t>
   </si>
   <si>
     <t>As a user I want to see what color and what brand of bikes are stolen, so I know what kind of bike won´t be stolen.</t>
@@ -218,13 +184,6 @@
   </si>
   <si>
     <t>As a developer I want to have access to all software necessary, so I can start developing the application.</t>
-  </si>
-  <si>
-    <t>#install Xamarin
-#updates.</t>
-  </si>
-  <si>
-    <t>#Xamarin is fully installed and working on all devices without any errors</t>
   </si>
   <si>
     <t>As a developer I want to be able to create and convert UML files so that I have a clear view of what's going on in the application</t>
@@ -244,6 +203,129 @@
   </si>
   <si>
     <t>#Contract is complete and everybody agress on its content.</t>
+  </si>
+  <si>
+    <t>As a user I want to see both the area of stole bikes and bike containers together in two barcharts, so I can see where it is safe to store my bike.</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Bar chart is displayed and has both axi and legends.
+# Bar chart works</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Bar chart is displayed and has both axi and legends.l</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Line chart is displayed and has both axi and legends.</t>
+  </si>
+  <si>
+    <t># Button is displayed and functional
+# Pie chart is displayed and has both axi and legends.</t>
+  </si>
+  <si>
+    <t>#install Xamarin
+#Install monogame
+#updates.</t>
+  </si>
+  <si>
+    <t>#Xamarin and monogame are fully installed and working on all devices without any errors</t>
+  </si>
+  <si>
+    <t>#Make a button for the barcharts function
+#Make a bar chart code for both the stolen bikes and bike containers
+#Request information from database
+#Draw a visual representation of the bar charts</t>
+  </si>
+  <si>
+    <t># Make a button for the barchart function
+# Make a bar chart code
+#Request information from database
+#Draw a visual representation of a bar chart</t>
+  </si>
+  <si>
+    <t>#Make a button for the linechart function
+#Make a line chart code
+#Request information from database
+#Draw a visual representation of a line char</t>
+  </si>
+  <si>
+    <t>#Make a button for the piechart function
+#Make a pie chart code
+#Request information from database
+#Draw a visual representation of a pie chart</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to save the location of my parked bike,
+ so I can find it back more easily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Build a button for the bike-location function
+#Make the code for the bike-location function
+#Request information from the database
+#Make the location visible on a map
+</t>
+  </si>
+  <si>
+    <t>#There's a button leading to the function
+#You can pick a spot to set your bike location
+#The spot will be saved and will pop up on a map</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>As a user I want to be reminded in my agenda when I
+need to pick up my bike, so I won't forget?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Set up database on server with PosgreSQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Build a button for the bike-remind function
+#Make the code for the bike-remind function
+#Request information from the database
+#Make the location visible on a map and
+create the pop-up when it needs to be reminded
+</t>
+  </si>
+  <si>
+    <t>#There's a button leading to the function
+#You can pick a spot to set your bike location
+#You can enter when you'll be reminded about your saved bike-location
+#The spot will be saved and will pop up on a map and you'll be reminded after an amount of time</t>
+  </si>
+  <si>
+    <t>As I user, I want to know the stolen bike rates on a map, so I can easily
+distinquish the area with a lot of stolen bikes and the areas with less stolen bikes.</t>
+  </si>
+  <si>
+    <t>#Build a button for the crime-map function
+#Make the code for the crime-map function
+#Request information from the database
+#Make the crime rate areas visible on a map with different colors.</t>
+  </si>
+  <si>
+    <t>#There's a button leading to the function
+#When you start the function, you can easily see and distinguish the areas of stolen bikes.</t>
+  </si>
+  <si>
+    <t>As I user I want to know which bike container is closest to me from my current
+ location, so I can store my bike easily.</t>
+  </si>
+  <si>
+    <t>#Build a button for the current-location function
+#Make the code for the current-location function
+#Request information from the database
+#Make the bike-container locations visible near the current position of the user</t>
+  </si>
+  <si>
+    <t>#There's a button leading to the function
+#When you start the function, you can easily see you location and the nearest bike containers</t>
   </si>
 </sst>
 </file>
@@ -415,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -529,9 +611,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,9 +635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -587,7 +675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,10 +900,10 @@
   <dimension ref="A1:AB1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D15"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,7 +971,9 @@
       <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1032,7 +1122,9 @@
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1068,7 +1160,9 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1104,7 +1198,9 @@
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1140,7 +1236,9 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1175,7 +1273,9 @@
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1287,7 +1387,9 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1324,7 +1426,9 @@
         <v>25</v>
       </c>
       <c r="G14" s="24"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1351,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>5</v>
@@ -1361,7 +1465,9 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -31208,7 +31314,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31276,7 +31382,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>5</v>
@@ -31285,10 +31391,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -31296,7 +31402,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>5</v>
@@ -31305,10 +31411,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -31316,7 +31422,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -31325,25 +31431,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>14</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="E7" s="29"/>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>15</v>
-      </c>
+      <c r="A8" s="26"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -31397,8 +31499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31411,7 +31513,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="1"/>
@@ -31439,7 +31541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>0</v>
       </c>
@@ -31453,18 +31555,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>5</v>
@@ -31473,18 +31575,18 @@
         <v>8</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>5</v>
@@ -31493,10 +31595,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -31504,7 +31606,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>5</v>
@@ -31513,10 +31615,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -31530,10 +31632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31546,7 +31648,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="1"/>
@@ -31574,32 +31676,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
-        <v>0</v>
+    <row r="3" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>31</v>
+      <c r="B3" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="36">
         <v>8</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>32</v>
+      <c r="E3" s="29" t="s">
+        <v>59</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>33</v>
+      <c r="F3" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>44</v>
+      <c r="B4" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>5</v>
@@ -31608,76 +31710,146 @@
         <v>8</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>5</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="E5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="36">
+        <v>8</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="35">
-        <v>5</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
-        <v>9</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="35">
-        <v>3</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
-        <v>11</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="36">
-        <v>3</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum stuff/Product en Sprint Backlog.xlsx
+++ b/Scrum stuff/Product en Sprint Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Source\Repos\Project4\Scrum stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mijn-Pc\Documents\GitHub\Project4\Scrum stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -134,16 +134,6 @@
     <t>As a user I want to be able to see the neighbourhoods with the most amout of bicycle containers in a bar chart so I know where I have the best chance of finding an empty one.</t>
   </si>
   <si>
-    <t>As a developer I want a database that contains all the information from my datasets so that I can easily add, remove, change or filter the information that I need</t>
-  </si>
-  <si>
-    <t>As a developer I want to have a parser in my code so that I can easily collect data from the database and use it.</t>
-  </si>
-  <si>
-    <t>#Build parser
-#Fill database</t>
-  </si>
-  <si>
     <t xml:space="preserve">#Create main menu 
 #Create buttons 
 </t>
@@ -151,15 +141,6 @@
   <si>
     <t>As a developer I want a main menu so that the users
 can navigate to the application more easily.</t>
-  </si>
-  <si>
-    <t># There is a parser that can fill an empty database with data.
-#Database is filled with 2 datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-#Database is functional (Ready to fill)
-</t>
   </si>
   <si>
     <t># Main menu starts at startup
@@ -279,13 +260,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>As a user I want to be reminded in my agenda when I
-need to pick up my bike, so I won't forget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Set up database on server with PosgreSQL </t>
-  </si>
-  <si>
     <t xml:space="preserve">#Build a button for the bike-remind function
 #Make the code for the bike-remind function
 #Request information from the database
@@ -300,32 +274,21 @@
 #The spot will be saved and will pop up on a map and you'll be reminded after an amount of time</t>
   </si>
   <si>
-    <t>As I user, I want to know the stolen bike rates on a map, so I can easily
-distinquish the area with a lot of stolen bikes and the areas with less stolen bikes.</t>
+    <t>As a user I want to be reminded in my agenda when I
+need to pick up my bike, so I won't forget.</t>
   </si>
   <si>
-    <t>#Build a button for the crime-map function
-#Make the code for the crime-map function
-#Request information from the database
-#Make the crime rate areas visible on a map with different colors.</t>
+    <t xml:space="preserve">As a user, I want to be able to check the location of bike containers on my PC before I leave home so I can plan my journey accordingly. </t>
   </si>
   <si>
-    <t>#There's a button leading to the function
-#When you start the function, you can easily see and distinguish the areas of stolen bikes.</t>
+    <t xml:space="preserve"># Implement the windows logic for scenes in the mobile app
+# Make an input for the data with windows logic
+# Setup Monogame logic
+</t>
   </si>
   <si>
-    <t>As I user I want to know which bike container is closest to me from my current
- location, so I can store my bike easily.</t>
-  </si>
-  <si>
-    <t>#Build a button for the current-location function
-#Make the code for the current-location function
-#Request information from the database
-#Make the bike-container locations visible near the current position of the user</t>
-  </si>
-  <si>
-    <t>#There's a button leading to the function
-#When you start the function, you can easily see you location and the nearest bike containers</t>
+    <t xml:space="preserve">#All the scenes from the mobile app that are able to be displayed (by means of logic) on desktop, should be able to display.
+</t>
   </si>
 </sst>
 </file>
@@ -607,16 +570,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -919,10 +882,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="2"/>
@@ -972,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1388,7 +1351,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1427,7 +1390,7 @@
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1455,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>5</v>
@@ -1466,7 +1429,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -31328,10 +31291,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31382,7 +31345,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>5</v>
@@ -31391,10 +31354,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -31402,7 +31365,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>5</v>
@@ -31411,10 +31374,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -31422,7 +31385,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -31431,10 +31394,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -31512,10 +31475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>40</v>
+      <c r="A1" s="39" t="s">
+        <v>35</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31555,10 +31518,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
@@ -31566,7 +31529,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>5</v>
@@ -31575,10 +31538,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
@@ -31586,7 +31549,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>5</v>
@@ -31595,10 +31558,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -31606,7 +31569,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>5</v>
@@ -31615,10 +31578,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -31634,8 +31597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31647,10 +31610,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>42</v>
+      <c r="A1" s="39" t="s">
+        <v>37</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31681,7 +31644,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>5</v>
@@ -31690,18 +31653,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>63</v>
+      <c r="B4" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>5</v>
@@ -31710,10 +31673,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -31721,7 +31684,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>5</v>
@@ -31730,18 +31693,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>6</v>
@@ -31750,71 +31713,35 @@
         <v>8</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
-        <v>7</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="36">
-        <v>5</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>8</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="35">
-        <v>5</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
-        <v>9</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="35">
-        <v>3</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>37</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
